--- a/app/static/uploads/MAU_HO_TEN.xlsx
+++ b/app/static/uploads/MAU_HO_TEN.xlsx
@@ -20,24 +20,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Họ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặng Tuấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">Họ và tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Tuấn Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Khoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Tiến Đạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào Duy Tuấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Trung Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Việt Hoàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Tiến Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào Duy Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Phú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Thị Kiều Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Hoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Thúy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào Duy Từ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Văn Thụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tường Vân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào Trung Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thế Kiểm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngô Văn Phúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Trung Dũng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Duy Hải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hữu Thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Hoàng Bách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Gia Bảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Anh Thư</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Thúy Vân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào Việt Hùng</t>
   </si>
 </sst>
 </file>
@@ -134,10 +200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:B22"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -150,24 +216,145 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
